--- a/medium alphabet/test_results.xlsx
+++ b/medium alphabet/test_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="klTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>gamma\log2(delta)</t>
   </si>
@@ -364,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,36 +448,282 @@
       <c r="J2">
         <v>3.3700000000000001E-2</v>
       </c>
+      <c r="K2">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N2">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.15</v>
       </c>
+      <c r="B3">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.41E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.04E-2</v>
+      </c>
+      <c r="K3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="L3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M3">
+        <v>1E-4</v>
+      </c>
+      <c r="N3">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
+      <c r="B4">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.09E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="K4">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
+      <c r="B5">
+        <v>1.11E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G5">
+        <v>3.8E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="J5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.3</v>
       </c>
+      <c r="B6">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L6">
+        <v>1E-4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.35</v>
       </c>
+      <c r="B7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1E-4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.4</v>
       </c>
+      <c r="B8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>1E-4</v>
+      </c>
+      <c r="E8">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -554,35 +800,281 @@
       <c r="J11">
         <v>0.84650000000000003</v>
       </c>
+      <c r="K11">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="M11">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.99150000000000005</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.15</v>
       </c>
+      <c r="B12">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.8206</v>
+      </c>
+      <c r="H12">
+        <v>0.8508</v>
+      </c>
+      <c r="I12">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="M12">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2</v>
       </c>
+      <c r="B13">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.8357</v>
+      </c>
+      <c r="E13">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="H13">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.9506</v>
+      </c>
+      <c r="K13">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="L13">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="N13">
+        <v>0.99660000000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.25</v>
       </c>
+      <c r="B14">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="H14">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="J14">
+        <v>0.9677</v>
+      </c>
+      <c r="K14">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="N14">
+        <v>0.99850000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.3</v>
       </c>
+      <c r="B15">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="H15">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="J15">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="L15">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.99880000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="J16">
+        <v>0.9849</v>
+      </c>
+      <c r="K16">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="M16">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="N16">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.4</v>
+      </c>
+      <c r="B17">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H17">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.9899</v>
+      </c>
+      <c r="J17">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="K17">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="N17">
+        <v>0.99929999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +1087,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,35 +1107,77 @@
       <c r="A2">
         <v>0.1</v>
       </c>
+      <c r="B2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.54479999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.15</v>
       </c>
+      <c r="B3">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.68920000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
+      <c r="B4">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
+      <c r="B5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.88329999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.3</v>
       </c>
+      <c r="B6">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>0.93859999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.35</v>
       </c>
+      <c r="B7">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.97050000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C8">
+        <v>0.98729999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,11 +1199,11 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.99870000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
